--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcClose.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729E108D-724A-4C33-BB4B-F4C0DA9E09A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="夜間批次、換日作業" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,23 +123,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>業務類別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>業務批號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">業務關帳次數    </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BatNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ClsNo </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -252,34 +231,65 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>上傳核心序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設為00，關帳時+1、關帳取消則-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只更新特定筆(09：放款)
+預設為000，產生上傳媒體(02=支票繳款，09=放款)關帳時＋１</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CoreSeqNo</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>上傳核心序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設為00，關帳時+1、關帳取消則-1</t>
+    <t xml:space="preserve">ClsNo </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務類別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務批號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0:開帳
 1:關帳
-2:關帳取消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只更新特定筆(09：放款)
-預設為000，產生上傳媒體(02=支票繳款，09=放款)關帳時＋１</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+2:關帳取消
+3:夜間批次執行中(不可執行關帳)
+4:夜間批次執行完畢(不可執行開帳)
+5:系統換日作業中(不可執行開帳,換日執行完畢自動開帳)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.夜間批次異常，重新啟動</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行LC899(執行模式:1.Direct CALL, 執行程式: L6870, 參數:0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行LC899(執行模式:1.Direct CALL, 執行程式: L6870, 參數:1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.夜間批次異常，強迫換日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,6 +361,13 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -436,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,10 +472,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -470,9 +487,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -485,9 +499,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -533,7 +547,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -624,23 +638,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -676,23 +673,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -868,112 +848,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="8"/>
+    <col min="1" max="1" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.77734375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="33.21875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="21.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="13"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -992,236 +974,237 @@
       <c r="F8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>8</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>4</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" ht="81" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="F10" s="16"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="81" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="23">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="23">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="23">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="23">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>9</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="15">
+        <v>6</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>12</v>
       </c>
-      <c r="E11" s="17">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>4</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="17">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>5</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="25">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>6</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="25">
-        <v>2</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
-        <v>7</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="25">
-        <v>6</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
-        <v>8</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="25">
-        <v>3</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
-        <v>9</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="17">
-        <v>6</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
-        <v>11</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+      <c r="D20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>6</v>
       </c>
       <c r="F20" s="5"/>
@@ -1243,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1272,13 +1255,13 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1286,4 +1269,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="65.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcClose.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="夜間批次、換日作業" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,19 +144,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>關帳狀態</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>預設為01，關帳後再開帳則＋１</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AcClose</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計業務關帳控制檔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -252,37 +245,100 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>業務批號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行LC899(執行模式:1.Direct CALL, 執行程式: L6870, 參數:1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行LC899(執行模式:1.Direct CALL, 執行程式: L6870, 參數:2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>關帳狀態</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>業務類別</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>業務批號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>會計業務關帳控制檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新TxBizDate(營業日檔)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6870 夜間批次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.夜間批次啟動</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.夜間批次結束</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">處理步驟     </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試時強制批次日期換至指定日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>異常強制執行方式</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>以連線營業日期，更新批次日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>以批次下營業日期，更新連線營業日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日期=批次日期， 關帳狀態=3:夜間批次執行中(業務類別=09)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日期=批次日期， 關帳狀態=4:夜間備份完成(業務類別=09)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新AcClose(會計業務關帳控制檔)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增AcClose(會計業務關帳控制檔)，關帳狀態=0:開帳</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行LC899(執行模式:1.Direct CALL, 執行程式: L6880, 參數:1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行LC899(執行模式:1.Direct CALL, 執行程式: L6880, 參數:2yyymmdd</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>L6880系統換日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>0:開帳
 1:關帳
 2:關帳取消
-3:夜間批次執行中(不可執行關帳)
-4:夜間批次執行完畢(不可執行開帳)
-5:系統換日作業中(不可執行開帳,換日執行完畢自動開帳)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.夜間批次異常，重新啟動</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>執行LC899(執行模式:1.Direct CALL, 執行程式: L6870, 參數:0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>執行LC899(執行模式:1.Direct CALL, 執行程式: L6870, 參數:1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.夜間批次異常，強迫換日</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+3:夜間批次執行中
+4:夜間批次備份完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,7 +509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -542,6 +598,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,39 +910,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.77734375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="33.21875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="21.44140625" style="8"/>
+    <col min="1" max="1" width="5.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.75" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.75" style="8" customWidth="1"/>
+    <col min="9" max="9" width="33.25" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="21.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="9" t="s">
@@ -896,7 +955,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>9</v>
       </c>
@@ -911,7 +970,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
@@ -922,7 +981,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
@@ -933,7 +992,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
@@ -944,7 +1003,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
@@ -955,7 +1014,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -978,7 +1037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -997,7 +1056,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -1016,7 +1075,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:8" ht="81" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -1024,7 +1083,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>12</v>
@@ -1034,10 +1093,10 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="113.4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>4</v>
       </c>
@@ -1045,7 +1104,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>16</v>
@@ -1055,11 +1114,11 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="19" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -1067,7 +1126,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>16</v>
@@ -1077,15 +1136,15 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>27</v>
@@ -1098,18 +1157,18 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>16</v>
@@ -1119,18 +1178,18 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>16</v>
@@ -1140,66 +1199,66 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>9</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="E18" s="15">
         <v>6</v>
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>50</v>
-      </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>12</v>
@@ -1234,15 +1293,15 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1253,15 +1312,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1273,36 +1332,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1"/>
-    <col min="2" max="2" width="65.21875" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.25" customWidth="1"/>
+    <col min="4" max="4" width="37.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
-        <v>63</v>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcClose.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="夜間批次、換日作業" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -232,11 +231,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>只更新特定筆(09：放款)
-預設為000，產生上傳媒體(02=支票繳款，09=放款)關帳時＋１</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CoreSeqNo</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -338,6 +332,12 @@
 2:關帳取消
 3:夜間批次執行中
 4:夜間批次備份完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只更新特定筆(09：放款)預設為000，產生上傳媒體時使用
+1.執行L6101-業務關帳作業(02=支票繳款，09=放款)關帳時＋１
+2.執行L6102-總帳傳票相關單獨作業時＋１</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -588,6 +588,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -598,9 +601,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -911,40 +911,40 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.75" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.75" style="8" customWidth="1"/>
-    <col min="9" max="9" width="33.25" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="21.5" style="8"/>
+    <col min="1" max="1" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.21875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="70.77734375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="33.21875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="21.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
@@ -955,11 +955,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="12" t="s">
         <v>29</v>
       </c>
@@ -970,51 +970,51 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="6"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="6"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="4"/>
       <c r="D6" s="13"/>
       <c r="E6" s="6"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="4"/>
       <c r="D7" s="13"/>
       <c r="E7" s="6"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>2</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="F10" s="16"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="81" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>3</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>12</v>
@@ -1096,7 +1096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="81" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>4</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>16</v>
@@ -1114,11 +1114,11 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>5</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>16</v>
@@ -1139,12 +1139,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>27</v>
@@ -1160,7 +1160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>7</v>
       </c>
@@ -1181,12 +1181,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>51</v>
@@ -1199,10 +1199,10 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>9</v>
       </c>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>10</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>11</v>
       </c>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>12</v>
       </c>
@@ -1293,15 +1293,15 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1338,78 +1338,78 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.25" customWidth="1"/>
-    <col min="4" max="4" width="37.75" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.21875" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D10" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcClose.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcClose.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAE06B6-4010-44C5-96F0-84F0E7824C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -187,10 +188,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -208,10 +205,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -340,11 +333,14 @@
 2.執行L6102-總帳傳票相關單獨作業時＋１</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -606,7 +602,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,9 +618,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -662,9 +658,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -699,7 +695,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,7 +730,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -907,11 +903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -936,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -1083,7 +1079,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>12</v>
@@ -1104,7 +1100,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>16</v>
@@ -1114,7 +1110,7 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H12" s="25"/>
     </row>
@@ -1126,7 +1122,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>16</v>
@@ -1144,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>27</v>
@@ -1157,7 +1153,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1186,10 +1182,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>16</v>
@@ -1199,7 +1195,7 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1213,7 +1209,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -1222,13 +1218,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="15">
         <v>6</v>
@@ -1240,13 +1236,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="16" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -1255,10 +1251,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>12</v>
@@ -1285,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1331,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1348,68 +1344,68 @@
   <sheetData>
     <row r="1" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
